--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22180502762998</v>
+        <v>1.659925666666667</v>
       </c>
       <c r="H2">
-        <v>1.22180502762998</v>
+        <v>4.979777</v>
       </c>
       <c r="I2">
-        <v>0.2118496906286447</v>
+        <v>0.2642801384529059</v>
       </c>
       <c r="J2">
-        <v>0.2118496906286447</v>
+        <v>0.2642801384529059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.65942875299979</v>
+        <v>7.446932333333334</v>
       </c>
       <c r="N2">
-        <v>6.65942875299979</v>
+        <v>22.340797</v>
       </c>
       <c r="O2">
-        <v>0.1199575426113847</v>
+        <v>0.1309571246780483</v>
       </c>
       <c r="P2">
-        <v>0.1199575426113847</v>
+        <v>0.1309571246780484</v>
       </c>
       <c r="Q2">
-        <v>8.13652353155879</v>
+        <v>12.36135411802989</v>
       </c>
       <c r="R2">
-        <v>8.13652353155879</v>
+        <v>111.252187062269</v>
       </c>
       <c r="S2">
-        <v>0.0254129682907943</v>
+        <v>0.03460936704130908</v>
       </c>
       <c r="T2">
-        <v>0.0254129682907943</v>
+        <v>0.03460936704130909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22180502762998</v>
+        <v>1.659925666666667</v>
       </c>
       <c r="H3">
-        <v>1.22180502762998</v>
+        <v>4.979777</v>
       </c>
       <c r="I3">
-        <v>0.2118496906286447</v>
+        <v>0.2642801384529059</v>
       </c>
       <c r="J3">
-        <v>0.2118496906286447</v>
+        <v>0.2642801384529059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6105492602523</v>
+        <v>35.70141366666667</v>
       </c>
       <c r="N3">
-        <v>35.6105492602523</v>
+        <v>107.104241</v>
       </c>
       <c r="O3">
-        <v>0.6414595213406681</v>
+        <v>0.6278228767838827</v>
       </c>
       <c r="P3">
-        <v>0.6414595213406681</v>
+        <v>0.6278228767838828</v>
       </c>
       <c r="Q3">
-        <v>43.50914812284132</v>
+        <v>59.26169288158412</v>
       </c>
       <c r="R3">
-        <v>43.50914812284132</v>
+        <v>533.3552359342571</v>
       </c>
       <c r="S3">
-        <v>0.135893001146819</v>
+        <v>0.1659211168003462</v>
       </c>
       <c r="T3">
-        <v>0.135893001146819</v>
+        <v>0.1659211168003462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22180502762998</v>
+        <v>1.659925666666667</v>
       </c>
       <c r="H4">
-        <v>1.22180502762998</v>
+        <v>4.979777</v>
       </c>
       <c r="I4">
-        <v>0.2118496906286447</v>
+        <v>0.2642801384529059</v>
       </c>
       <c r="J4">
-        <v>0.2118496906286447</v>
+        <v>0.2642801384529059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2449034025312</v>
+        <v>13.71707733333333</v>
       </c>
       <c r="N4">
-        <v>13.2449034025312</v>
+        <v>41.151232</v>
       </c>
       <c r="O4">
-        <v>0.2385829360479473</v>
+        <v>0.2412199985380688</v>
       </c>
       <c r="P4">
-        <v>0.2385829360479473</v>
+        <v>0.2412199985380689</v>
       </c>
       <c r="Q4">
-        <v>16.18268956768605</v>
+        <v>22.76932873725156</v>
       </c>
       <c r="R4">
-        <v>16.18268956768605</v>
+        <v>204.923958635264</v>
       </c>
       <c r="S4">
-        <v>0.05054372119103136</v>
+        <v>0.06374965461125058</v>
       </c>
       <c r="T4">
-        <v>0.05054372119103136</v>
+        <v>0.06374965461125061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.44954433988087</v>
+        <v>1.475152</v>
       </c>
       <c r="H5">
-        <v>1.44954433988087</v>
+        <v>4.425456000000001</v>
       </c>
       <c r="I5">
-        <v>0.2513375808838669</v>
+        <v>0.2348619475123571</v>
       </c>
       <c r="J5">
-        <v>0.2513375808838669</v>
+        <v>0.2348619475123571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.65942875299979</v>
+        <v>7.446932333333334</v>
       </c>
       <c r="N5">
-        <v>6.65942875299979</v>
+        <v>22.340797</v>
       </c>
       <c r="O5">
-        <v>0.1199575426113847</v>
+        <v>0.1309571246780483</v>
       </c>
       <c r="P5">
-        <v>0.1199575426113847</v>
+        <v>0.1309571246780484</v>
       </c>
       <c r="Q5">
-        <v>9.653137255750766</v>
+        <v>10.98535712538134</v>
       </c>
       <c r="R5">
-        <v>9.653137255750766</v>
+        <v>98.86821412843202</v>
       </c>
       <c r="S5">
-        <v>0.0301498385687188</v>
+        <v>0.030756845342505</v>
       </c>
       <c r="T5">
-        <v>0.0301498385687188</v>
+        <v>0.030756845342505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44954433988087</v>
+        <v>1.475152</v>
       </c>
       <c r="H6">
-        <v>1.44954433988087</v>
+        <v>4.425456000000001</v>
       </c>
       <c r="I6">
-        <v>0.2513375808838669</v>
+        <v>0.2348619475123571</v>
       </c>
       <c r="J6">
-        <v>0.2513375808838669</v>
+        <v>0.2348619475123571</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6105492602523</v>
+        <v>35.70141366666667</v>
       </c>
       <c r="N6">
-        <v>35.6105492602523</v>
+        <v>107.104241</v>
       </c>
       <c r="O6">
-        <v>0.6414595213406681</v>
+        <v>0.6278228767838827</v>
       </c>
       <c r="P6">
-        <v>0.6414595213406681</v>
+        <v>0.6278228767838828</v>
       </c>
       <c r="Q6">
-        <v>51.61907012024762</v>
+        <v>52.66501177321068</v>
       </c>
       <c r="R6">
-        <v>51.61907012024762</v>
+        <v>473.985105958896</v>
       </c>
       <c r="S6">
-        <v>0.1612228843286867</v>
+        <v>0.1474517035342733</v>
       </c>
       <c r="T6">
-        <v>0.1612228843286867</v>
+        <v>0.1474517035342733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.44954433988087</v>
+        <v>1.475152</v>
       </c>
       <c r="H7">
-        <v>1.44954433988087</v>
+        <v>4.425456000000001</v>
       </c>
       <c r="I7">
-        <v>0.2513375808838669</v>
+        <v>0.2348619475123571</v>
       </c>
       <c r="J7">
-        <v>0.2513375808838669</v>
+        <v>0.2348619475123571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.2449034025312</v>
+        <v>13.71707733333333</v>
       </c>
       <c r="N7">
-        <v>13.2449034025312</v>
+        <v>41.151232</v>
       </c>
       <c r="O7">
-        <v>0.2385829360479473</v>
+        <v>0.2412199985380688</v>
       </c>
       <c r="P7">
-        <v>0.2385829360479473</v>
+        <v>0.2412199985380689</v>
       </c>
       <c r="Q7">
-        <v>19.19907475940798</v>
+        <v>20.23477406242134</v>
       </c>
       <c r="R7">
-        <v>19.19907475940798</v>
+        <v>182.112966561792</v>
       </c>
       <c r="S7">
-        <v>0.0599648579864614</v>
+        <v>0.05665339863557878</v>
       </c>
       <c r="T7">
-        <v>0.0599648579864614</v>
+        <v>0.05665339863557879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.09597096231538</v>
+        <v>3.145854666666667</v>
       </c>
       <c r="H8">
-        <v>3.09597096231538</v>
+        <v>9.437564</v>
       </c>
       <c r="I8">
-        <v>0.5368127284874884</v>
+        <v>0.5008579140347369</v>
       </c>
       <c r="J8">
-        <v>0.5368127284874884</v>
+        <v>0.500857914034737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.65942875299979</v>
+        <v>7.446932333333334</v>
       </c>
       <c r="N8">
-        <v>6.65942875299979</v>
+        <v>22.340797</v>
       </c>
       <c r="O8">
-        <v>0.1199575426113847</v>
+        <v>0.1309571246780483</v>
       </c>
       <c r="P8">
-        <v>0.1199575426113847</v>
+        <v>0.1309571246780484</v>
       </c>
       <c r="Q8">
-        <v>20.61739804489547</v>
+        <v>23.42696683316756</v>
       </c>
       <c r="R8">
-        <v>20.61739804489547</v>
+        <v>210.842701498508</v>
       </c>
       <c r="S8">
-        <v>0.06439473575187155</v>
+        <v>0.06559091229423426</v>
       </c>
       <c r="T8">
-        <v>0.06439473575187155</v>
+        <v>0.06559091229423429</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.09597096231538</v>
+        <v>3.145854666666667</v>
       </c>
       <c r="H9">
-        <v>3.09597096231538</v>
+        <v>9.437564</v>
       </c>
       <c r="I9">
-        <v>0.5368127284874884</v>
+        <v>0.5008579140347369</v>
       </c>
       <c r="J9">
-        <v>0.5368127284874884</v>
+        <v>0.500857914034737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6105492602523</v>
+        <v>35.70141366666667</v>
       </c>
       <c r="N9">
-        <v>35.6105492602523</v>
+        <v>107.104241</v>
       </c>
       <c r="O9">
-        <v>0.6414595213406681</v>
+        <v>0.6278228767838827</v>
       </c>
       <c r="P9">
-        <v>0.6414595213406681</v>
+        <v>0.6278228767838828</v>
       </c>
       <c r="Q9">
-        <v>110.2492264618426</v>
+        <v>112.3114587898804</v>
       </c>
       <c r="R9">
-        <v>110.2492264618426</v>
+        <v>1010.803129108924</v>
       </c>
       <c r="S9">
-        <v>0.3443436358651623</v>
+        <v>0.3144500564492632</v>
       </c>
       <c r="T9">
-        <v>0.3443436358651623</v>
+        <v>0.3144500564492633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.09597096231538</v>
+        <v>3.145854666666667</v>
       </c>
       <c r="H10">
-        <v>3.09597096231538</v>
+        <v>9.437564</v>
       </c>
       <c r="I10">
-        <v>0.5368127284874884</v>
+        <v>0.5008579140347369</v>
       </c>
       <c r="J10">
-        <v>0.5368127284874884</v>
+        <v>0.500857914034737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2449034025312</v>
+        <v>13.71707733333333</v>
       </c>
       <c r="N10">
-        <v>13.2449034025312</v>
+        <v>41.151232</v>
       </c>
       <c r="O10">
-        <v>0.2385829360479473</v>
+        <v>0.2412199985380688</v>
       </c>
       <c r="P10">
-        <v>0.2385829360479473</v>
+        <v>0.2412199985380689</v>
       </c>
       <c r="Q10">
-        <v>41.00583633290877</v>
+        <v>43.15193174209423</v>
       </c>
       <c r="R10">
-        <v>41.00583633290877</v>
+        <v>388.367385678848</v>
       </c>
       <c r="S10">
-        <v>0.1280743568704545</v>
+        <v>0.1208169452912394</v>
       </c>
       <c r="T10">
-        <v>0.1280743568704545</v>
+        <v>0.1208169452912395</v>
       </c>
     </row>
   </sheetData>
